--- a/reports/orders.xlsx
+++ b/reports/orders.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>No.</t>
   </si>
@@ -41,19 +41,34 @@
     <t>GAISANO</t>
   </si>
   <si>
-    <t>May 15, 2024</t>
-  </si>
-  <si>
-    <t>₱46.00</t>
+    <t>Jan 01, 2024</t>
+  </si>
+  <si>
+    <t>₱0.00</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>10-000000002</t>
+  </si>
+  <si>
+    <t>Jun 08, 2024</t>
+  </si>
+  <si>
+    <t>₱81.32</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>10-000000002</t>
-  </si>
-  <si>
-    <t>₱6.00</t>
+    <t>10-000000003</t>
+  </si>
+  <si>
+    <t>Jun 12, 2024</t>
+  </si>
+  <si>
+    <t>₱65.50</t>
   </si>
 </sst>
 </file>
@@ -434,10 +449,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="A1" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -501,13 +516,33 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/reports/orders.xlsx
+++ b/reports/orders.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -38,13 +38,13 @@
     <t>10-000000001</t>
   </si>
   <si>
-    <t>GAISANO</t>
-  </si>
-  <si>
-    <t>Jan 01, 2024</t>
-  </si>
-  <si>
-    <t>₱0.00</t>
+    <t>PRINCE</t>
+  </si>
+  <si>
+    <t>Jun 26, 2024</t>
+  </si>
+  <si>
+    <t>₱20.00</t>
   </si>
   <si>
     <t>NO</t>
@@ -53,22 +53,10 @@
     <t>10-000000002</t>
   </si>
   <si>
-    <t>Jun 08, 2024</t>
-  </si>
-  <si>
-    <t>₱81.32</t>
+    <t>Jul 01, 2024</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>10-000000003</t>
-  </si>
-  <si>
-    <t>Jun 12, 2024</t>
-  </si>
-  <si>
-    <t>₱65.50</t>
   </si>
 </sst>
 </file>
@@ -105,7 +93,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6900"/>
+        <fgColor rgb="FFD3D3D3"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -449,10 +437,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:F4"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -519,30 +507,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/reports/orders.xlsx
+++ b/reports/orders.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>No.</t>
   </si>
@@ -29,22 +29,25 @@
     <t>Date Purchased</t>
   </si>
   <si>
+    <t>Is Paid</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Is Paid</t>
-  </si>
-  <si>
     <t>10-000000001</t>
   </si>
   <si>
     <t>PRINCE</t>
   </si>
   <si>
-    <t>Jun 26, 2024</t>
-  </si>
-  <si>
-    <t>₱20.00</t>
+    <t>06-26-2024</t>
   </si>
   <si>
     <t>NO</t>
@@ -53,10 +56,13 @@
     <t>10-000000002</t>
   </si>
   <si>
-    <t>Jul 01, 2024</t>
+    <t>07-01-2024</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>1,620.00</t>
   </si>
 </sst>
 </file>
@@ -125,17 +131,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -437,10 +448,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="A1" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,11 +460,11 @@
     <col min="2" max="2" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="4.57" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,48 +483,87 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5">
+        <v>56.0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>20.0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6">
+        <v>81.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>40.0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
